--- a/data/case5.xlsx
+++ b/data/case5.xlsx
@@ -217,7 +217,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,7 +268,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -277,28 +277,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0</v>
+        <v>131.47</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>-127.5</v>
+        <v>-150</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>127.5</v>
+        <v>150</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>230</v>
@@ -309,7 +309,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -318,28 +318,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>98.61</v>
+        <v>0</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0</v>
+        <v>-127.5</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0</v>
+        <v>127.5</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>230</v>
@@ -350,7 +350,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -359,7 +359,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>323.49</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -374,13 +374,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>-390</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>230</v>
@@ -391,7 +391,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -400,28 +400,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>323.49</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>131.47</v>
+        <v>98.61</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>-150</v>
+        <v>-390</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>230</v>
